--- a/resources/owner.xlsx
+++ b/resources/owner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/378633b9415d47a5/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Techidol solutions\CRM\crm_dashboard\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_F25DC773A252ABDACC1048D8619F5E285BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AF13175-F69D-4BBA-A307-82949540899D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1B1316-F586-415D-BB2F-E175E408432E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Phone Number</t>
   </si>
@@ -42,18 +42,12 @@
     <t>PAN Number</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>Rohan</t>
   </si>
   <si>
     <t>male</t>
   </si>
   <si>
-    <t>sample@gmail.com</t>
-  </si>
-  <si>
     <t>DXLY4260</t>
   </si>
   <si>
@@ -75,25 +69,52 @@
     <t>Rahul</t>
   </si>
   <si>
-    <t>sample1@gmail.com</t>
-  </si>
-  <si>
-    <t>sample2@gmail.com</t>
-  </si>
-  <si>
     <t>22AAAAA2000A1Z5</t>
   </si>
   <si>
     <t>22AAAAA0034A1Z7</t>
   </si>
   <si>
-    <t>Indore</t>
-  </si>
-  <si>
-    <t>Banglore</t>
-  </si>
-  <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>kolar</t>
+  </si>
+  <si>
+    <t>bhopal</t>
+  </si>
+  <si>
+    <t>niims</t>
+  </si>
+  <si>
+    <t>indore</t>
+  </si>
+  <si>
+    <t>Prabhat</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>test1@gmail.com</t>
+  </si>
+  <si>
+    <t>test2@gmail.com</t>
+  </si>
+  <si>
+    <t>test3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -451,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" activeCellId="1" sqref="D4 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,9 +487,9 @@
     <col min="6" max="6" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -486,76 +507,112 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>7674636363</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2">
+        <v>462042</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>7674634564</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3">
+        <v>462021</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>7674636365</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4">
+        <v>462022</v>
       </c>
     </row>
   </sheetData>

--- a/resources/owner.xlsx
+++ b/resources/owner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Techidol solutions\CRM\crm_dashboard\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1B1316-F586-415D-BB2F-E175E408432E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628FCF99-0FA4-46D0-B4E4-E315739CAF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,12 +51,6 @@
     <t>DXLY4260</t>
   </si>
   <si>
-    <t>Bhopal</t>
-  </si>
-  <si>
-    <t>22AAAAA0000A1Z6</t>
-  </si>
-  <si>
     <t>DXLY4261</t>
   </si>
   <si>
@@ -115,6 +109,12 @@
   </si>
   <si>
     <t>test3@gmail.com</t>
+  </si>
+  <si>
+    <t>gwalior</t>
+  </si>
+  <si>
+    <t>22AABAC0000A1Z6</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" activeCellId="1" sqref="D4 E9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,7 +489,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -507,16 +507,16 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -530,22 +530,22 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J2">
         <v>462042</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>7674634564</v>
@@ -562,30 +562,30 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
       <c r="J3">
-        <v>462021</v>
+        <v>462043</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>7674636365</v>
@@ -594,25 +594,25 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J4">
-        <v>462022</v>
+        <v>462044</v>
       </c>
     </row>
   </sheetData>

--- a/resources/owner.xlsx
+++ b/resources/owner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Techidol solutions\CRM\crm_dashboard\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628FCF99-0FA4-46D0-B4E4-E315739CAF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30178B61-0E29-4B12-8B91-95F67AC09813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Phone Number</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>22AABAC0000A1Z6</t>
+  </si>
+  <si>
+    <t>HSNNO</t>
+  </si>
+  <si>
+    <t>HSX1234</t>
+  </si>
+  <si>
+    <t>HSX1235</t>
+  </si>
+  <si>
+    <t>HSX1256</t>
   </si>
 </sst>
 </file>
@@ -472,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -485,9 +497,10 @@
     <col min="4" max="4" width="22.1796875" customWidth="1"/>
     <col min="5" max="5" width="21.1796875" customWidth="1"/>
     <col min="6" max="6" width="21.26953125" customWidth="1"/>
+    <col min="11" max="11" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -518,8 +531,11 @@
       <c r="J1" t="s">
         <v>18</v>
       </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -550,8 +566,11 @@
       <c r="J2">
         <v>462042</v>
       </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -582,8 +601,11 @@
       <c r="J3">
         <v>462043</v>
       </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -613,6 +635,9 @@
       </c>
       <c r="J4">
         <v>462044</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/resources/owner.xlsx
+++ b/resources/owner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Techidol solutions\CRM\crm_dashboard\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30178B61-0E29-4B12-8B91-95F67AC09813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A28AB3A-99D9-4783-836B-91A90AF379EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,126 +25,160 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="48">
   <si>
     <t>Phone Number</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>GSTIN Number</t>
-  </si>
-  <si>
-    <t>Email Id</t>
-  </si>
-  <si>
-    <t>PAN Number</t>
-  </si>
-  <si>
-    <t>Rohan</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>DXLY4260</t>
-  </si>
-  <si>
-    <t>DXLY4261</t>
-  </si>
-  <si>
-    <t>DXLY4262</t>
-  </si>
-  <si>
-    <t>Rohit</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>22AAAAA2000A1Z5</t>
-  </si>
-  <si>
-    <t>22AAAAA0034A1Z7</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>pincode</t>
-  </si>
-  <si>
-    <t>kolar</t>
-  </si>
-  <si>
-    <t>bhopal</t>
-  </si>
-  <si>
-    <t>niims</t>
-  </si>
-  <si>
-    <t>indore</t>
-  </si>
-  <si>
-    <t>Prabhat</t>
-  </si>
-  <si>
-    <t>Madhya Pradesh</t>
-  </si>
-  <si>
-    <t>test1@gmail.com</t>
-  </si>
-  <si>
-    <t>test2@gmail.com</t>
-  </si>
-  <si>
-    <t>test3@gmail.com</t>
-  </si>
-  <si>
-    <t>gwalior</t>
-  </si>
-  <si>
-    <t>22AABAC0000A1Z6</t>
-  </si>
-  <si>
-    <t>HSNNO</t>
-  </si>
-  <si>
-    <t>HSX1234</t>
-  </si>
-  <si>
-    <t>HSX1235</t>
-  </si>
-  <si>
-    <t>HSX1256</t>
+    <t>Account No</t>
+  </si>
+  <si>
+    <t>IFSC Code</t>
+  </si>
+  <si>
+    <t>District and Location</t>
+  </si>
+  <si>
+    <t>Vehicle No</t>
+  </si>
+  <si>
+    <t>Vehicle Type</t>
+  </si>
+  <si>
+    <t>Monthly Payment</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>Bank of Baroda</t>
+  </si>
+  <si>
+    <t>Bank of India</t>
+  </si>
+  <si>
+    <t>ICICI Bank</t>
+  </si>
+  <si>
+    <t>Pradeep Sharma</t>
+  </si>
+  <si>
+    <t>Chandan Singh</t>
+  </si>
+  <si>
+    <t>Rohit Shetty</t>
+  </si>
+  <si>
+    <t>BARBODKROOR</t>
+  </si>
+  <si>
+    <t>DKFCCHHTR990</t>
+  </si>
+  <si>
+    <t>MP04CT1236</t>
+  </si>
+  <si>
+    <t>MP04CT1237</t>
+  </si>
+  <si>
+    <t>MP04CT1238</t>
+  </si>
+  <si>
+    <t>MP04CT1239</t>
+  </si>
+  <si>
+    <t>MP04CT1240</t>
+  </si>
+  <si>
+    <t>DKFCCHHTR995</t>
+  </si>
+  <si>
+    <t>MP04CT1241</t>
+  </si>
+  <si>
+    <t>ASHOKA GARDEN</t>
+  </si>
+  <si>
+    <t>KAROND</t>
+  </si>
+  <si>
+    <t>KOLAR</t>
+  </si>
+  <si>
+    <t>Rohit Sharma</t>
+  </si>
+  <si>
+    <t>PUNJAB NATIONAL BANK</t>
+  </si>
+  <si>
+    <t>RKDFCCTTETR9</t>
+  </si>
+  <si>
+    <t>SHAHPURA</t>
+  </si>
+  <si>
+    <t>Bolero</t>
+  </si>
+  <si>
+    <t>Scorpio</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>MP04CT1234</t>
+  </si>
+  <si>
+    <t>MP04CT1235</t>
+  </si>
+  <si>
+    <t>MP04CT1242</t>
+  </si>
+  <si>
+    <t>MP04CT1243</t>
+  </si>
+  <si>
+    <t>MP04CT1244</t>
+  </si>
+  <si>
+    <t>MP04CT1245</t>
+  </si>
+  <si>
+    <t>MP04CT1246</t>
+  </si>
+  <si>
+    <t>MP04CT1247</t>
+  </si>
+  <si>
+    <t>MP04CT1248</t>
+  </si>
+  <si>
+    <t>MP04CT1249</t>
+  </si>
+  <si>
+    <t>MP04CT1250</t>
+  </si>
+  <si>
+    <t>MP04CT1251</t>
+  </si>
+  <si>
+    <t>MP04CT1252</t>
+  </si>
+  <si>
+    <t>MP04CT1253</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,17 +213,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,169 +516,636 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" customWidth="1"/>
-    <col min="6" max="6" width="21.26953125" customWidth="1"/>
-    <col min="11" max="11" width="21.1796875" customWidth="1"/>
+    <col min="1" max="2" width="17.54296875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" customWidth="1"/>
+    <col min="7" max="7" width="21.26953125" customWidth="1"/>
+    <col min="8" max="8" width="19.08984375" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>710345748594</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>19000</v>
+      </c>
+      <c r="I2">
+        <v>7453654637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>710345748595</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3">
+        <v>19000</v>
+      </c>
+      <c r="I3">
+        <v>7453654637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>710345748596</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>19000</v>
+      </c>
+      <c r="I4">
+        <v>7453654637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>710345748597</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <v>19000</v>
+      </c>
+      <c r="I5">
+        <v>7453654637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>710345748598</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <v>19000</v>
+      </c>
+      <c r="I6">
+        <v>7453654637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>710345748599</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7">
+        <v>19000</v>
+      </c>
+      <c r="I7">
+        <v>7453654637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>710345748600</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>19000</v>
+      </c>
+      <c r="I8">
+        <v>7453654637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>657483940594</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <v>19000</v>
+      </c>
+      <c r="I9">
+        <v>6342536473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>657483940595</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10">
+        <v>19000</v>
+      </c>
+      <c r="I10">
+        <v>6342536473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>657483940596</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <v>19000</v>
+      </c>
+      <c r="I11">
+        <v>6342536473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>657483940597</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12">
+        <v>19000</v>
+      </c>
+      <c r="I12">
+        <v>6342536473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>657483940598</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13">
+        <v>19000</v>
+      </c>
+      <c r="I13">
+        <v>6342536473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <v>893546738293</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14">
+        <v>19000</v>
+      </c>
+      <c r="I14">
+        <v>6342536478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>893546738293</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15">
+        <v>19000</v>
+      </c>
+      <c r="I15">
+        <v>6342536478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2">
+        <v>893546738293</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16">
+        <v>19000</v>
+      </c>
+      <c r="I16">
+        <v>6342536478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>893546738293</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17">
+        <v>19000</v>
+      </c>
+      <c r="I17">
+        <v>6342536478</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2">
+        <v>564637463646</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>7674636363</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2">
-        <v>462042</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="F18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>7674634564</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="H18">
+        <v>19000</v>
+      </c>
+      <c r="I18">
+        <v>6342536470</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>564637463646</v>
+      </c>
+      <c r="D19" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3">
-        <v>462043</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>7674636365</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="H19">
+        <v>19000</v>
+      </c>
+      <c r="I19">
+        <v>6342536470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4">
-        <v>462044</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="C20" s="2">
+        <v>564637463646</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
         <v>33</v>
       </c>
+      <c r="H20">
+        <v>19000</v>
+      </c>
+      <c r="I20">
+        <v>6342536470</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <v>564637463646</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21">
+        <v>19000</v>
+      </c>
+      <c r="I21">
+        <v>6342536470</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{8EB9428F-EC24-4985-AB13-FC0BF9D87075}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{91425E54-3B95-4A1A-947E-680FBB917B67}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{2DDD9857-2B5B-4A96-B787-62BF3F20996B}"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>